--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64486</v>
+        <v>98019</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>André Ribeiro</t>
+          <t>Davi Lucas Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>9742.76</v>
+        <v>6547.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45104</v>
+        <v>62703</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruna da Mota</t>
+          <t>Ana Luiza Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>12143.48</v>
+        <v>3245.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>764</v>
+        <v>89905</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucas Viana</t>
+          <t>Gabriela da Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>8759.110000000001</v>
+        <v>10835.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27708</v>
+        <v>84849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Juan da Cunha</t>
+          <t>Sophie Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>4422.32</v>
+        <v>11967.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70624</v>
+        <v>644</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Larissa Freitas</t>
+          <t>Marcelo Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>5236.01</v>
+        <v>2566.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6257</v>
+        <v>42840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Costa</t>
+          <t>Luana Porto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>10767.22</v>
+        <v>10036.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71798</v>
+        <v>81065</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Laura Melo</t>
+          <t>Maria Sophia Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>11234.68</v>
+        <v>8134.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27853</v>
+        <v>9274</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Ana Luiza da Conceição</t>
+          <t>Isis Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>6410.19</v>
+        <v>11322.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47965</v>
+        <v>55266</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Diego Rezende</t>
+          <t>Luiza da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>8852.67</v>
+        <v>10398.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76298</v>
+        <v>78380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luana Lopes</t>
+          <t>Henrique Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>2659.62</v>
+        <v>9887.59</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98019</v>
+        <v>10983</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucas Monteiro</t>
+          <t>Joana Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>6547.23</v>
+        <v>11640.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62703</v>
+        <v>41104</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza Carvalho</t>
+          <t>Lara Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>3245.85</v>
+        <v>5278.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89905</v>
+        <v>56031</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriela da Rocha</t>
+          <t>Bryan Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>10835.57</v>
+        <v>2522.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84849</v>
+        <v>95329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sophie Costela</t>
+          <t>Srta. Alícia Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,152 +577,152 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>11967.47</v>
+        <v>3683.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>644</v>
+        <v>47026</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcelo Jesus</t>
+          <t>Stella Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>2566.47</v>
+        <v>6449.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42840</v>
+        <v>6867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luana Porto</t>
+          <t>Ana Luiza Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>10036.15</v>
+        <v>4459.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81065</v>
+        <v>42539</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Sophia Pires</t>
+          <t>Sr. Ryan Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>8134.44</v>
+        <v>5223.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9274</v>
+        <v>64058</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isis Nunes</t>
+          <t>Vitor Gabriel Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>11322.3</v>
+        <v>7947.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55266</v>
+        <v>42999</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiza da Luz</t>
+          <t>Isaac Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -732,16 +732,16 @@
         <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>10398.34</v>
+        <v>8124.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78380</v>
+        <v>29417</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Henrique Cardoso</t>
+          <t>Leonardo Ribeiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>9887.59</v>
+        <v>9971.34</v>
       </c>
     </row>
   </sheetData>
